--- a/testData/WebForm/TC036_WF_RRYN_OneY_TwoY_Test.xlsx
+++ b/testData/WebForm/TC036_WF_RRYN_OneY_TwoY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="120">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -361,6 +361,24 @@
   </si>
   <si>
     <t>9840020655</t>
+  </si>
+  <si>
+    <t>9840077049</t>
+  </si>
+  <si>
+    <t>9840095986</t>
+  </si>
+  <si>
+    <t>9840097921</t>
+  </si>
+  <si>
+    <t>9840032060</t>
+  </si>
+  <si>
+    <t>9840025918</t>
+  </si>
+  <si>
+    <t>9840041530</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1111,7 @@
         <v>91</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AN2" t="s" s="0">
         <v>107</v>
@@ -1262,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1354,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1492,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1627,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1718,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1809,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC036_WF_RRYN_OneY_TwoY_Test.xlsx
+++ b/testData/WebForm/TC036_WF_RRYN_OneY_TwoY_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="105">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -267,12 +267,6 @@
     <t>9840031214</t>
   </si>
   <si>
-    <t>9840002058</t>
-  </si>
-  <si>
-    <t>9840040228</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -303,82 +297,43 @@
     <t>9840069840</t>
   </si>
   <si>
+    <t>9840034567</t>
+  </si>
+  <si>
+    <t>9840005409</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840077049</t>
+  </si>
+  <si>
+    <t>9840095986</t>
+  </si>
+  <si>
+    <t>9840097921</t>
+  </si>
+  <si>
+    <t>9840032060</t>
+  </si>
+  <si>
+    <t>9840025918</t>
+  </si>
+  <si>
+    <t>9840041530</t>
+  </si>
+  <si>
+    <t>9840034087</t>
+  </si>
+  <si>
+    <t>9840076032</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>9840034567</t>
-  </si>
-  <si>
-    <t>9840005409</t>
-  </si>
-  <si>
-    <t>9840012632</t>
-  </si>
-  <si>
-    <t>9840059772</t>
-  </si>
-  <si>
-    <t>9840099901</t>
-  </si>
-  <si>
-    <t>9840080321</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9840062580</t>
-  </si>
-  <si>
-    <t>9840005352</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840026360</t>
-  </si>
-  <si>
-    <t>9840082910</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9840021151</t>
-  </si>
-  <si>
-    <t>9840031365</t>
-  </si>
-  <si>
-    <t>9840022653</t>
-  </si>
-  <si>
-    <t>9840018236</t>
-  </si>
-  <si>
-    <t>9840093597</t>
-  </si>
-  <si>
-    <t>9840020655</t>
-  </si>
-  <si>
-    <t>9840077049</t>
-  </si>
-  <si>
-    <t>9840095986</t>
-  </si>
-  <si>
-    <t>9840097921</t>
-  </si>
-  <si>
-    <t>9840032060</t>
-  </si>
-  <si>
-    <t>9840025918</t>
-  </si>
-  <si>
-    <t>9840041530</t>
   </si>
 </sst>
 </file>
@@ -765,58 +720,58 @@
   <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -995,7 +950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1033,7 @@
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1087,7 +1042,7 @@
         <v>48</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>17</v>
@@ -1096,7 +1051,7 @@
         <v>48</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1108,19 +1063,19 @@
         <v>29</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="AN2" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="AN2" t="s" s="0">
-        <v>107</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>17</v>
@@ -1129,7 +1084,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1138,7 +1093,7 @@
         <v>48</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>17</v>
@@ -1147,7 +1102,7 @@
         <v>48</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>17</v>
@@ -1156,7 +1111,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>17</v>
@@ -1169,7 +1124,7 @@
       </c>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1213,10 +1168,10 @@
         <v>50</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1263,7 +1218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1307,11 +1262,11 @@
         <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1372,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1399,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1419,7 +1374,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1449,7 +1404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,7 +1448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1537,10 +1492,10 @@
         <v>45</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1584,7 +1539,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1675,7 +1630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1736,7 +1691,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1763,10 +1718,10 @@
         <v>45</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1827,7 +1782,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1854,10 +1809,10 @@
         <v>45</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
